--- a/Sprint 1/Time Sheet.xlsx
+++ b/Sprint 1/Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pangk\Documents\Uni\Second Year\FIT2101\my-awesome-project\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DeskTop\UNI 2018\Semester 2\FIT2101\my-awesome-project\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43E8D7-B08C-4C74-8A19-FB775C4C0E81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{425E94D5-58EE-4BCC-BA11-E4814AE0D1CC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8200" windowHeight="4100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8205" windowHeight="4095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Michael</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Spike (producing pie chart and line graph for number of revisions using test document data)</t>
+  </si>
+  <si>
+    <t>Learning the API</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -153,12 +162,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -473,18 +489,18 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="74.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -515,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -529,7 +545,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -543,79 +559,87 @@
         <v>43345</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>43345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
